--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/gaussian/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/gaussian/resultados.xlsx
@@ -53,7 +53,7 @@
     <t>[(2, 64)]</t>
   </si>
   <si>
-    <t>[(4, 32), (1, 128)]</t>
+    <t>[(4, 4), (8, 8), (2, 64), (4, 32), (8, 16), (1, 128)]</t>
   </si>
   <si>
     <t>[(1, 128)]</t>
@@ -62,10 +62,10 @@
     <t>[(4, 32)]</t>
   </si>
   <si>
+    <t>[(8, 8), (8, 16)]</t>
+  </si>
+  <si>
     <t>[(8, 16)]</t>
-  </si>
-  <si>
-    <t>[(2, 64), (1, 128)]</t>
   </si>
 </sst>
 </file>
@@ -536,31 +536,31 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.304E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
       <c r="F4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="G4" s="1">
+        <v>5.12E-06</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.168000000000001E-06</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.952000000000001E-06</v>
+      </c>
+      <c r="J4" s="1">
         <v>6.176000000000001E-06</v>
       </c>
-      <c r="H4" s="1">
-        <v>7.296E-06</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6.976000000000001E-06</v>
-      </c>
       <c r="K4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.208000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -568,43 +568,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.9552E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="C5" s="1">
         <v>9.216000000000001E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>7.136000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="E5" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H5" s="1">
+        <v>1.2128E-05</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.168000000000001E-06</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.1264E-05</v>
       </c>
-      <c r="I5" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.1072E-05</v>
-      </c>
       <c r="K5" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="L5" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>8.224000000000001E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>1.1264E-05</v>
+        <v>1.024E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -612,13 +612,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000258848</v>
+        <v>0.000258816</v>
       </c>
       <c r="C6" s="1">
         <v>7.372800000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.5632E-05</v>
+        <v>2.7456E-05</v>
       </c>
       <c r="E6" s="1">
         <v>2.6624E-05</v>
@@ -630,19 +630,19 @@
         <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6384E-05</v>
+        <v>1.6256E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.908800000000001E-05</v>
+        <v>8.998400000000001E-05</v>
       </c>
       <c r="K6" s="1">
         <v>2.56E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.8128E-05</v>
+        <v>4.7104E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>1.2192E-05</v>
+        <v>1.2256E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -650,22 +650,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.00039936</v>
+        <v>0.000400384</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000111616</v>
+        <v>0.000110592</v>
       </c>
       <c r="D7" s="1">
-        <v>3.1744E-05</v>
+        <v>3.3792E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.3328E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.6384E-05</v>
+        <v>1.5488E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.2528E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -673,34 +673,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000775968</v>
+        <v>0.000775168</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000218976</v>
+        <v>0.000218112</v>
       </c>
       <c r="D8" s="1">
-        <v>6.416000000000001E-05</v>
+        <v>6.2464E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>4.0896E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>7.065600000000001E-05</v>
+        <v>7.1648E-05</v>
       </c>
       <c r="H8" s="1">
         <v>0.000126976</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000123584</v>
+        <v>0.00012288</v>
       </c>
       <c r="K8" s="1">
-        <v>3.8912E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="L8" s="1">
-        <v>6.8544E-05</v>
+        <v>6.8608E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.000139264</v>
+        <v>0.00013824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,28 +708,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001735584</v>
+        <v>0.001734656</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000465856</v>
+        <v>0.000466688</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000145344</v>
+        <v>0.000145248</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000134144</v>
+        <v>0.000135968</v>
       </c>
       <c r="G9" s="1">
         <v>4.608000000000001E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>7.062400000000001E-05</v>
+        <v>7.049600000000001E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000134848</v>
+        <v>0.000134144</v>
       </c>
       <c r="M9" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.697600000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -737,34 +737,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.00702464</v>
+        <v>0.007025664</v>
       </c>
       <c r="C10" s="1">
-        <v>0.002116448</v>
+        <v>0.001883008</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0005058560000000001</v>
+        <v>0.0005059520000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000279552</v>
+        <v>0.000278528</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0005304320000000001</v>
+        <v>0.000531456</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001066688</v>
+        <v>0.00106496</v>
       </c>
       <c r="J10" s="1">
-        <v>0.00101488</v>
+        <v>0.001015808</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000269312</v>
+        <v>0.00027008</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005263360000000001</v>
+        <v>0.0005260800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>0.001159168</v>
+        <v>0.001160192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -772,31 +772,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.040933376</v>
+        <v>0.0409464</v>
       </c>
       <c r="C11" s="1">
-        <v>0.010524672</v>
+        <v>0.010525696</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002814976</v>
+        <v>0.00281696</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00187776</v>
+        <v>0.001879008</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003775488</v>
+        <v>0.003776224</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0008867840000000001</v>
+        <v>0.0008905600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001013888</v>
+        <v>0.001015776</v>
       </c>
       <c r="K11" s="1">
-        <v>0.00183296</v>
+        <v>0.001831936</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003811296</v>
+        <v>0.003802112</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2192E-05</v>
+        <v>1.2256E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6384E-05</v>
+        <v>1.5488E-05</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3.8912E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -907,7 +907,7 @@
         <v>4.608000000000001E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000269312</v>
+        <v>0.00027008</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -932,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0008867840000000001</v>
+        <v>0.0008905600000000001</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/gaussian/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/gaussian/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Image Name</t>
   </si>
@@ -50,22 +50,25 @@
     <t>Local Size</t>
   </si>
   <si>
+    <t>[(8, 8), (2, 64)]</t>
+  </si>
+  <si>
+    <t>[(4, 32)]</t>
+  </si>
+  <si>
+    <t>[(2, 64), (1, 128)]</t>
+  </si>
+  <si>
+    <t>[(8, 8)]</t>
+  </si>
+  <si>
+    <t>[(1, 128)]</t>
+  </si>
+  <si>
+    <t>[(8, 16)]</t>
+  </si>
+  <si>
     <t>[(2, 64)]</t>
-  </si>
-  <si>
-    <t>[(4, 4), (8, 8), (2, 64), (4, 32), (8, 16), (1, 128)]</t>
-  </si>
-  <si>
-    <t>[(1, 128)]</t>
-  </si>
-  <si>
-    <t>[(4, 32)]</t>
-  </si>
-  <si>
-    <t>[(8, 8), (8, 16)]</t>
-  </si>
-  <si>
-    <t>[(8, 16)]</t>
   </si>
 </sst>
 </file>
@@ -533,13 +536,13 @@
         <v>9.216000000000001E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.04E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>6.304E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>7.136000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
         <v>7.168000000000001E-06</v>
@@ -548,19 +551,19 @@
         <v>5.12E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>8.000000000000001E-06</v>
       </c>
       <c r="I4" s="1">
         <v>5.952000000000001E-06</v>
       </c>
       <c r="J4" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="K4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.272E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -577,34 +580,34 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>8.960000000000001E-06</v>
       </c>
       <c r="G5" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>1.2128E-05</v>
+        <v>1.1168E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="J5" s="1">
+        <v>1.2032E-05</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.208000000000001E-06</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.192000000000001E-06</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6.272E-06</v>
+      </c>
+      <c r="N5" s="1">
         <v>1.1264E-05</v>
-      </c>
-      <c r="K5" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8.224000000000001E-06</v>
-      </c>
-      <c r="M5" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.024E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -612,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000258816</v>
+        <v>0.000262144</v>
       </c>
       <c r="C6" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.782400000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.7456E-05</v>
+        <v>2.6592E-05</v>
       </c>
       <c r="E6" s="1">
         <v>2.6624E-05</v>
@@ -630,19 +633,19 @@
         <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6256E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.998400000000001E-05</v>
+        <v>8.908800000000001E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.56E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="L6" s="1">
         <v>4.7104E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>1.2256E-05</v>
+        <v>1.2288E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -650,22 +653,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000400384</v>
+        <v>0.000401408</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000110592</v>
+        <v>0.000113664</v>
       </c>
       <c r="D7" s="1">
-        <v>3.3792E-05</v>
+        <v>3.4816E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.3328E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.5488E-05</v>
+        <v>1.5392E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.2528E-05</v>
+        <v>2.1504E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -676,16 +679,16 @@
         <v>0.000775168</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000218112</v>
+        <v>0.000219136</v>
       </c>
       <c r="D8" s="1">
-        <v>6.2464E-05</v>
+        <v>6.3488E-05</v>
       </c>
       <c r="E8" s="1">
         <v>3.993600000000001E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>7.1648E-05</v>
+        <v>7.065600000000001E-05</v>
       </c>
       <c r="H8" s="1">
         <v>0.000126976</v>
@@ -694,7 +697,7 @@
         <v>0.00012288</v>
       </c>
       <c r="K8" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.0608E-05</v>
       </c>
       <c r="L8" s="1">
         <v>6.8608E-05</v>
@@ -708,28 +711,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001734656</v>
+        <v>0.00173536</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000466688</v>
+        <v>0.000466944</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000145248</v>
+        <v>0.000144448</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000135968</v>
+        <v>0.000135072</v>
       </c>
       <c r="G9" s="1">
+        <v>4.6208E-05</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.168E-05</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.000135296</v>
+      </c>
+      <c r="M9" s="1">
         <v>4.608000000000001E-05</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7.049600000000001E-05</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.000134144</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4.697600000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -737,31 +740,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.007025664</v>
+        <v>0.007023328000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001883008</v>
+        <v>0.001883136</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0005059520000000001</v>
+        <v>0.000507904</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000278528</v>
+        <v>0.000279488</v>
       </c>
       <c r="F10" s="1">
         <v>0.000531456</v>
       </c>
       <c r="H10" s="1">
-        <v>0.00106496</v>
+        <v>0.001065984</v>
       </c>
       <c r="J10" s="1">
-        <v>0.001015808</v>
+        <v>0.002341536</v>
       </c>
       <c r="K10" s="1">
-        <v>0.00027008</v>
+        <v>0.000270336</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005260800000000001</v>
+        <v>0.0005263360000000001</v>
       </c>
       <c r="N10" s="1">
         <v>0.001160192</v>
@@ -772,31 +775,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0409464</v>
+        <v>0.040935552</v>
       </c>
       <c r="C11" s="1">
-        <v>0.010525696</v>
+        <v>0.010522656</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00281696</v>
+        <v>0.002818016</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001879008</v>
+        <v>0.001877824</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003776224</v>
+        <v>0.0057936</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0008905600000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001015776</v>
+        <v>0.001014784</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001831936</v>
+        <v>0.00252416</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003802112</v>
+        <v>0.003801088</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -862,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2256E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -876,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.5488E-05</v>
+        <v>1.5392E-05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -893,7 +896,7 @@
         <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -907,7 +910,7 @@
         <v>4.608000000000001E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -918,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00027008</v>
+        <v>0.000270336</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -932,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0008905600000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
